--- a/ig/nr-prepare-release/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:11:24+00:00</t>
+    <t>2023-09-01T08:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -185,10 +189,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -667,7 +667,7 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>36</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -689,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -701,13 +701,13 @@
         <v>36</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -758,13 +758,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -773,15 +773,15 @@
         <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -804,13 +804,13 @@
         <v>36</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -849,19 +849,19 @@
         <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
@@ -873,7 +873,7 @@
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -892,10 +892,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
@@ -969,10 +969,10 @@
         <v>56</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
@@ -1000,7 +1000,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1075,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>

--- a/ig/nr-prepare-release/StructureDefinition-PDSmintendedrecipient.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-PDSmintendedrecipient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:02:25+00:00</t>
+    <t>2023-10-11T07:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
